--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgal</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgal</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N2">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O2">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P2">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q2">
-        <v>0.211028360631</v>
+        <v>0.14905999566125</v>
       </c>
       <c r="R2">
-        <v>0.844113442524</v>
+        <v>0.596239982645</v>
       </c>
       <c r="S2">
-        <v>0.001459876009962888</v>
+        <v>0.0001774758719339363</v>
       </c>
       <c r="T2">
-        <v>0.0007386271282383846</v>
+        <v>8.166397393926696E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P3">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q3">
-        <v>0.05077772270149999</v>
+        <v>0.0499986772325</v>
       </c>
       <c r="R3">
-        <v>0.304666336209</v>
+        <v>0.299992063395</v>
       </c>
       <c r="S3">
-        <v>0.0003512759090333294</v>
+        <v>5.953011603158242E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002665931018846032</v>
+        <v>4.10883952102598E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N4">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O4">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P4">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q4">
-        <v>19.93096663528</v>
+        <v>28.7089294530525</v>
       </c>
       <c r="R4">
-        <v>119.58579981168</v>
+        <v>172.253576718315</v>
       </c>
       <c r="S4">
-        <v>0.1378807092999884</v>
+        <v>0.03418182232172775</v>
       </c>
       <c r="T4">
-        <v>0.1046415226238743</v>
+        <v>0.02359270094177063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N5">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O5">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P5">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q5">
-        <v>0.19871433554225</v>
+        <v>0.2028818096</v>
       </c>
       <c r="R5">
-        <v>0.7948573421689999</v>
+        <v>0.8115272384</v>
       </c>
       <c r="S5">
-        <v>0.001374688645765043</v>
+        <v>0.0002415579438236574</v>
       </c>
       <c r="T5">
-        <v>0.000695526414376218</v>
+        <v>0.0001111507801836923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N6">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O6">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P6">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q6">
-        <v>0.1693653410503333</v>
+        <v>50.88857266393166</v>
       </c>
       <c r="R6">
-        <v>1.016192046302</v>
+        <v>305.33143598359</v>
       </c>
       <c r="S6">
-        <v>0.001171654831508193</v>
+        <v>0.06058965562785532</v>
       </c>
       <c r="T6">
-        <v>0.0008892015872349918</v>
+        <v>0.04181970206088786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N7">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O7">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P7">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q7">
-        <v>26.681881699622</v>
+        <v>2.487938694916667</v>
       </c>
       <c r="R7">
-        <v>160.091290197732</v>
+        <v>14.9276321695</v>
       </c>
       <c r="S7">
-        <v>0.1845829578426053</v>
+        <v>0.002962223950428445</v>
       </c>
       <c r="T7">
-        <v>0.1400851638864484</v>
+        <v>0.002044562256722778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N8">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O8">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P8">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q8">
-        <v>0.035867746926</v>
+        <v>0.0257299582035</v>
       </c>
       <c r="R8">
-        <v>0.215206481556</v>
+        <v>0.154379749221</v>
       </c>
       <c r="S8">
-        <v>0.0002481299817338178</v>
+        <v>3.063495840538928E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001883127757978758</v>
+        <v>2.114461321632074E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P9">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q9">
         <v>0.008630510619</v>
@@ -1013,10 +1013,10 @@
         <v>0.077674595571</v>
       </c>
       <c r="S9">
-        <v>5.970512858430081E-05</v>
+        <v>1.027577782051625E-05</v>
       </c>
       <c r="T9">
-        <v>6.796783533281363E-05</v>
+        <v>1.063869638583091E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N10">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O10">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P10">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q10">
-        <v>3.387596174880001</v>
+        <v>4.955585511843</v>
       </c>
       <c r="R10">
-        <v>30.48836557392001</v>
+        <v>44.600269606587</v>
       </c>
       <c r="S10">
-        <v>0.02343509835531969</v>
+        <v>0.00590028770466518</v>
       </c>
       <c r="T10">
-        <v>0.02667832636477209</v>
+        <v>0.006108673287355136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N11">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O11">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P11">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q11">
-        <v>0.0337747754685</v>
+        <v>0.03502039872</v>
       </c>
       <c r="R11">
-        <v>0.202648652811</v>
+        <v>0.21012239232</v>
       </c>
       <c r="S11">
-        <v>0.0002336509855874938</v>
+        <v>4.169647108021381E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001773242610846238</v>
+        <v>2.877940102969176E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N12">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O12">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P12">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q12">
-        <v>0.028786430282</v>
+        <v>8.784119722198</v>
       </c>
       <c r="R12">
-        <v>0.259077872538</v>
+        <v>79.057077499782</v>
       </c>
       <c r="S12">
-        <v>0.0001991420435409838</v>
+        <v>0.01045867001373092</v>
       </c>
       <c r="T12">
-        <v>0.0002267016911976406</v>
+        <v>0.01082804794139537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N13">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O13">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P13">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q13">
-        <v>4.535025422412</v>
+        <v>0.4294549879</v>
       </c>
       <c r="R13">
-        <v>40.815228801708</v>
+        <v>3.8650948911</v>
       </c>
       <c r="S13">
-        <v>0.03137291499092721</v>
+        <v>0.0005113236324462363</v>
       </c>
       <c r="T13">
-        <v>0.03571467260141522</v>
+        <v>0.0005293824930347133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N14">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O14">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P14">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q14">
-        <v>0.06059424052</v>
+        <v>0.1108908619121667</v>
       </c>
       <c r="R14">
-        <v>0.36356544312</v>
+        <v>0.665345171473</v>
       </c>
       <c r="S14">
-        <v>0.0004191857331998551</v>
+        <v>0.0001320304104401882</v>
       </c>
       <c r="T14">
-        <v>0.0003181317648199948</v>
+        <v>9.112896203765483E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P15">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q15">
-        <v>0.01458020871333333</v>
+        <v>0.03719573711366667</v>
       </c>
       <c r="R15">
-        <v>0.13122187842</v>
+        <v>0.334761634023</v>
       </c>
       <c r="S15">
-        <v>0.0001008646271866095</v>
+        <v>4.428650254006124E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001148234755385445</v>
+        <v>4.585060739376423E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N16">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O16">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P16">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q16">
-        <v>5.722935924266668</v>
+        <v>21.357560876759</v>
       </c>
       <c r="R16">
-        <v>51.50642331840001</v>
+        <v>192.218047890831</v>
       </c>
       <c r="S16">
-        <v>0.03959077745479289</v>
+        <v>0.02542903427690293</v>
       </c>
       <c r="T16">
-        <v>0.0450698207432216</v>
+        <v>0.02632713355447637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N17">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O17">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P17">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q17">
-        <v>0.05705841720333333</v>
+        <v>0.1509307620266667</v>
       </c>
       <c r="R17">
-        <v>0.34235050322</v>
+        <v>0.9055845721599999</v>
       </c>
       <c r="S17">
-        <v>0.000394725212253597</v>
+        <v>0.0001797032696365468</v>
       </c>
       <c r="T17">
-        <v>0.000299567992055955</v>
+        <v>0.0001240333373360979</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N18">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O18">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P18">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q18">
-        <v>0.04863120852888889</v>
+        <v>37.85776095826289</v>
       </c>
       <c r="R18">
-        <v>0.43768087676</v>
+        <v>340.719848624366</v>
       </c>
       <c r="S18">
-        <v>0.0003364265089988017</v>
+        <v>0.04507473051859803</v>
       </c>
       <c r="T18">
-        <v>0.0003829852159674682</v>
+        <v>0.04666667390405094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N19">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O19">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P19">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q19">
-        <v>7.661379505573333</v>
+        <v>1.850863238255555</v>
       </c>
       <c r="R19">
-        <v>68.95241555016</v>
+        <v>16.6577691443</v>
       </c>
       <c r="S19">
-        <v>0.05300076307262381</v>
+        <v>0.002203700366303358</v>
       </c>
       <c r="T19">
-        <v>0.06033563987635035</v>
+        <v>0.002281530365091909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.119346999999999</v>
+      </c>
+      <c r="H20">
+        <v>24.358041</v>
+      </c>
+      <c r="I20">
+        <v>0.7722573895496326</v>
+      </c>
+      <c r="J20">
+        <v>0.7983947762164634</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0.5</v>
       </c>
-      <c r="G20">
-        <v>0.0970365</v>
-      </c>
-      <c r="H20">
-        <v>0.194073</v>
-      </c>
-      <c r="I20">
-        <v>0.03024167409784893</v>
-      </c>
-      <c r="J20">
-        <v>0.02288489829956054</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N20">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O20">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P20">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q20">
-        <v>0.019527043041</v>
+        <v>1.1720805152055</v>
       </c>
       <c r="R20">
-        <v>0.078108172164</v>
+        <v>7.032483091233</v>
       </c>
       <c r="S20">
-        <v>0.0001350864006895999</v>
+        <v>0.001395518700306455</v>
       </c>
       <c r="T20">
-        <v>6.834722916499972E-05</v>
+        <v>0.0009632036304293344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P21">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q21">
-        <v>0.0046986043665</v>
+        <v>0.393146901087</v>
       </c>
       <c r="R21">
-        <v>0.028191626199</v>
+        <v>3.538322109783</v>
       </c>
       <c r="S21">
-        <v>3.250454002698907E-05</v>
+        <v>0.0004680939963738303</v>
       </c>
       <c r="T21">
-        <v>2.466860359132988E-05</v>
+        <v>0.0004846260783790699</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N22">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O22">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P22">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q22">
-        <v>1.84426795608</v>
+        <v>225.742505056839</v>
       </c>
       <c r="R22">
-        <v>11.06560773648</v>
+        <v>2031.682545511551</v>
       </c>
       <c r="S22">
-        <v>0.01275848675966527</v>
+        <v>0.2687766609665119</v>
       </c>
       <c r="T22">
-        <v>0.009682772069319685</v>
+        <v>0.2782692796170707</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N23">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O23">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P23">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q23">
-        <v>0.01838759193975</v>
+        <v>1.59528929856</v>
       </c>
       <c r="R23">
-        <v>0.07355036775899999</v>
+        <v>9.57173579136</v>
       </c>
       <c r="S23">
-        <v>0.0001272037761823217</v>
+        <v>0.001899405390378765</v>
       </c>
       <c r="T23">
-        <v>6.43589998475384E-05</v>
+        <v>0.001310992226236821</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N24">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O24">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P24">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q24">
-        <v>0.015671847587</v>
+        <v>400.144278828254</v>
       </c>
       <c r="R24">
-        <v>0.094031085522</v>
+        <v>3601.298509454286</v>
       </c>
       <c r="S24">
-        <v>0.000108416490824481</v>
+        <v>0.4764253109587469</v>
       </c>
       <c r="T24">
-        <v>8.228030400342556E-05</v>
+        <v>0.4932516372332918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N25">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O25">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P25">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q25">
-        <v>2.468948964042</v>
+        <v>19.5630253067</v>
       </c>
       <c r="R25">
-        <v>14.813693784252</v>
+        <v>176.0672277603</v>
       </c>
       <c r="S25">
-        <v>0.01707997613046027</v>
+        <v>0.02329239953731478</v>
       </c>
       <c r="T25">
-        <v>0.01296247109363356</v>
+        <v>0.02411503743105561</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.201234</v>
+        <v>0.1443565</v>
       </c>
       <c r="N26">
-        <v>0.402468</v>
+        <v>0.288713</v>
       </c>
       <c r="O26">
-        <v>0.004466895590915999</v>
+        <v>0.001807064223911535</v>
       </c>
       <c r="P26">
-        <v>0.002986564688658119</v>
+        <v>0.001206425266199622</v>
       </c>
       <c r="Q26">
-        <v>0.12158725975</v>
+        <v>0.05997165683533334</v>
       </c>
       <c r="R26">
-        <v>0.7295235585000001</v>
+        <v>0.359829941012</v>
       </c>
       <c r="S26">
-        <v>0.0008411301831440956</v>
+        <v>7.140428282556639E-05</v>
       </c>
       <c r="T26">
-        <v>0.0006383571968548311</v>
+        <v>4.928408657704492E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.145263</v>
       </c>
       <c r="O27">
-        <v>0.001074826080124351</v>
+        <v>0.0006061372836416816</v>
       </c>
       <c r="P27">
-        <v>0.001077942460937377</v>
+        <v>0.0006070005626485669</v>
       </c>
       <c r="Q27">
-        <v>0.02925637170833333</v>
+        <v>0.02011608480133333</v>
       </c>
       <c r="R27">
-        <v>0.263307345375</v>
+        <v>0.181044763212</v>
       </c>
       <c r="S27">
-        <v>0.0002023930578233313</v>
+        <v>2.395089087569143E-05</v>
       </c>
       <c r="T27">
-        <v>0.0002304026195541592</v>
+        <v>2.479678527964198E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.00592</v>
+        <v>27.803037</v>
       </c>
       <c r="N28">
-        <v>57.01776000000001</v>
+        <v>83.409111</v>
       </c>
       <c r="O28">
-        <v>0.4218842752681068</v>
+        <v>0.3480402578255131</v>
       </c>
       <c r="P28">
-        <v>0.4231074983411932</v>
+        <v>0.3485359472612899</v>
       </c>
       <c r="Q28">
-        <v>11.48353524666667</v>
+        <v>11.550530761996</v>
       </c>
       <c r="R28">
-        <v>103.35181722</v>
+        <v>103.954776857964</v>
       </c>
       <c r="S28">
-        <v>0.07944210705160179</v>
+        <v>0.0137524525557054</v>
       </c>
       <c r="T28">
-        <v>0.09043625193690311</v>
+        <v>0.01423815986061711</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1894915</v>
+        <v>0.19648</v>
       </c>
       <c r="N29">
-        <v>0.378983</v>
+        <v>0.39296</v>
       </c>
       <c r="O29">
-        <v>0.004206241220996745</v>
+        <v>0.002459549647671829</v>
       </c>
       <c r="P29">
-        <v>0.002812291276329347</v>
+        <v>0.001642035074990746</v>
       </c>
       <c r="Q29">
-        <v>0.1144923433958333</v>
+        <v>0.08162591317333333</v>
       </c>
       <c r="R29">
-        <v>0.686954060375</v>
+        <v>0.4897554790399999</v>
       </c>
       <c r="S29">
-        <v>0.0007920481633285101</v>
+        <v>9.718657275264559E-05</v>
       </c>
       <c r="T29">
-        <v>0.0006011074806832703</v>
+        <v>6.707933020444374E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1615046666666667</v>
+        <v>49.28281533333333</v>
       </c>
       <c r="N30">
-        <v>0.484514</v>
+        <v>147.848446</v>
       </c>
       <c r="O30">
-        <v>0.003585002949032924</v>
+        <v>0.6169255450395754</v>
       </c>
       <c r="P30">
-        <v>0.003595397406900672</v>
+        <v>0.6178041890138317</v>
       </c>
       <c r="Q30">
-        <v>0.09758246547222221</v>
+        <v>20.47411851250044</v>
       </c>
       <c r="R30">
-        <v>0.8782421892500001</v>
+        <v>184.267066612504</v>
       </c>
       <c r="S30">
-        <v>0.0006750670853432296</v>
+        <v>0.02437717792064433</v>
       </c>
       <c r="T30">
-        <v>0.0007684909082881662</v>
+        <v>0.02523812787420569</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.443508</v>
+        <v>2.409433333333333</v>
       </c>
       <c r="N31">
-        <v>76.330524</v>
+        <v>7.2283</v>
       </c>
       <c r="O31">
-        <v>0.5647827588908233</v>
+        <v>0.03016144597968628</v>
       </c>
       <c r="P31">
-        <v>0.5664203058259814</v>
+        <v>0.03020440282103933</v>
       </c>
       <c r="Q31">
-        <v>15.37317956283333</v>
+        <v>1.000978196577778</v>
       </c>
       <c r="R31">
-        <v>138.3586160655</v>
+        <v>9.0088037692</v>
       </c>
       <c r="S31">
-        <v>0.1063503311759855</v>
+        <v>0.001191798493193452</v>
       </c>
       <c r="T31">
-        <v>0.1210683565776668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.201234</v>
-      </c>
-      <c r="N32">
-        <v>0.402468</v>
-      </c>
-      <c r="O32">
-        <v>0.004466895590915999</v>
-      </c>
-      <c r="P32">
-        <v>0.002986564688658119</v>
-      </c>
-      <c r="Q32">
-        <v>0.197095153244</v>
-      </c>
-      <c r="R32">
-        <v>1.182570919464</v>
-      </c>
-      <c r="S32">
-        <v>0.001363487282185742</v>
-      </c>
-      <c r="T32">
-        <v>0.001034788593782032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.048421</v>
-      </c>
-      <c r="N33">
-        <v>0.145263</v>
-      </c>
-      <c r="O33">
-        <v>0.001074826080124351</v>
-      </c>
-      <c r="P33">
-        <v>0.001077942460937377</v>
-      </c>
-      <c r="Q33">
-        <v>0.04742510915266667</v>
-      </c>
-      <c r="R33">
-        <v>0.426825982374</v>
-      </c>
-      <c r="S33">
-        <v>0.0003280828174697904</v>
-      </c>
-      <c r="T33">
-        <v>0.0003734868250359268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>19.00592</v>
-      </c>
-      <c r="N34">
-        <v>57.01776000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.4218842752681068</v>
-      </c>
-      <c r="P34">
-        <v>0.4231074983411932</v>
-      </c>
-      <c r="Q34">
-        <v>18.61501890805334</v>
-      </c>
-      <c r="R34">
-        <v>167.53517017248</v>
-      </c>
-      <c r="S34">
-        <v>0.1287770963467388</v>
-      </c>
-      <c r="T34">
-        <v>0.1465988046031024</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.1894915</v>
-      </c>
-      <c r="N35">
-        <v>0.378983</v>
-      </c>
-      <c r="O35">
-        <v>0.004206241220996745</v>
-      </c>
-      <c r="P35">
-        <v>0.002812291276329347</v>
-      </c>
-      <c r="Q35">
-        <v>0.1855941651556667</v>
-      </c>
-      <c r="R35">
-        <v>1.113564990934</v>
-      </c>
-      <c r="S35">
-        <v>0.001283924437879779</v>
-      </c>
-      <c r="T35">
-        <v>0.0009744061282817415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.1615046666666667</v>
-      </c>
-      <c r="N36">
-        <v>0.484514</v>
-      </c>
-      <c r="O36">
-        <v>0.003585002949032924</v>
-      </c>
-      <c r="P36">
-        <v>0.003595397406900672</v>
-      </c>
-      <c r="Q36">
-        <v>0.1581829463524445</v>
-      </c>
-      <c r="R36">
-        <v>1.423646517172</v>
-      </c>
-      <c r="S36">
-        <v>0.001094295988817235</v>
-      </c>
-      <c r="T36">
-        <v>0.00124573770020898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>25.443508</v>
-      </c>
-      <c r="N37">
-        <v>76.330524</v>
-      </c>
-      <c r="O37">
-        <v>0.5647827588908233</v>
-      </c>
-      <c r="P37">
-        <v>0.5664203058259814</v>
-      </c>
-      <c r="Q37">
-        <v>24.92020288979467</v>
-      </c>
-      <c r="R37">
-        <v>224.281826008152</v>
-      </c>
-      <c r="S37">
-        <v>0.1723958156782213</v>
-      </c>
-      <c r="T37">
-        <v>0.196254001790467</v>
+        <v>0.001233890275134316</v>
       </c>
     </row>
   </sheetData>
